--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H2">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I2">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J2">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>2.221886116145111</v>
+        <v>2.436751695075</v>
       </c>
       <c r="R2">
-        <v>19.996975045306</v>
+        <v>21.930765255675</v>
       </c>
       <c r="S2">
-        <v>0.07708165578228679</v>
+        <v>0.0592238445122398</v>
       </c>
       <c r="T2">
-        <v>0.07708165578228679</v>
+        <v>0.05922384451223979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H3">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I3">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J3">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
-        <v>0.6077865766768891</v>
+        <v>0.4993012775666668</v>
       </c>
       <c r="R3">
-        <v>5.470079190092001</v>
+        <v>4.493711498100001</v>
       </c>
       <c r="S3">
-        <v>0.0210853271695959</v>
+        <v>0.01213522957104615</v>
       </c>
       <c r="T3">
-        <v>0.02108532716959589</v>
+        <v>0.01213522957104614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H4">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I4">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J4">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>1.889277018357</v>
+        <v>2.381271987858333</v>
       </c>
       <c r="R4">
-        <v>17.003493165213</v>
+        <v>21.431447890725</v>
       </c>
       <c r="S4">
-        <v>0.06554278356041017</v>
+        <v>0.05787544222717098</v>
       </c>
       <c r="T4">
-        <v>0.06554278356041017</v>
+        <v>0.05787544222717096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H5">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I5">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J5">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>1.030886443148556</v>
+        <v>1.026918715591667</v>
       </c>
       <c r="R5">
-        <v>9.277977988337</v>
+        <v>9.242268440324999</v>
       </c>
       <c r="S5">
-        <v>0.03576350443166153</v>
+        <v>0.02495866709022151</v>
       </c>
       <c r="T5">
-        <v>0.03576350443166153</v>
+        <v>0.0249586670902215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.005528</v>
       </c>
       <c r="I6">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J6">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N6">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q6">
-        <v>4.717319032023111</v>
+        <v>6.297572226631999</v>
       </c>
       <c r="R6">
-        <v>42.455871288208</v>
+        <v>56.678150039688</v>
       </c>
       <c r="S6">
-        <v>0.1636531950037568</v>
+        <v>0.1530588607400862</v>
       </c>
       <c r="T6">
-        <v>0.1636531950037568</v>
+        <v>0.1530588607400862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.005528</v>
       </c>
       <c r="I7">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J7">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q7">
         <v>1.290400603672889</v>
@@ -883,10 +883,10 @@
         <v>11.613605433056</v>
       </c>
       <c r="S7">
-        <v>0.04476656766105495</v>
+        <v>0.03136244241252959</v>
       </c>
       <c r="T7">
-        <v>0.04476656766105495</v>
+        <v>0.03136244241252959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.005528</v>
       </c>
       <c r="I8">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J8">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N8">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O8">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P8">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q8">
-        <v>4.011151773576</v>
+        <v>6.15418976217511</v>
       </c>
       <c r="R8">
-        <v>36.100365962184</v>
+        <v>55.387707859576</v>
       </c>
       <c r="S8">
-        <v>0.1391548459908111</v>
+        <v>0.1495740326396526</v>
       </c>
       <c r="T8">
-        <v>0.1391548459908111</v>
+        <v>0.1495740326396525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.005528</v>
       </c>
       <c r="I9">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J9">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N9">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q9">
-        <v>2.188690141579555</v>
+        <v>2.653981854363555</v>
       </c>
       <c r="R9">
-        <v>19.698211274216</v>
+        <v>23.885836689272</v>
       </c>
       <c r="S9">
-        <v>0.07593002129201006</v>
+        <v>0.06450349824268628</v>
       </c>
       <c r="T9">
-        <v>0.07593002129201007</v>
+        <v>0.06450349824268627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H10">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I10">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J10">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N10">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q10">
-        <v>3.930047616724445</v>
+        <v>6.951687782131</v>
       </c>
       <c r="R10">
-        <v>35.37042855052</v>
+        <v>62.56519003917899</v>
       </c>
       <c r="S10">
-        <v>0.1363411812149627</v>
+        <v>0.1689567620446004</v>
       </c>
       <c r="T10">
-        <v>0.1363411812149627</v>
+        <v>0.1689567620446004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H11">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I11">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J11">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.055252</v>
       </c>
       <c r="O11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q11">
-        <v>1.075046182515556</v>
+        <v>1.424431794949778</v>
       </c>
       <c r="R11">
-        <v>9.675415642640001</v>
+        <v>12.819886154548</v>
       </c>
       <c r="S11">
-        <v>0.03729549376477292</v>
+        <v>0.03461999321182366</v>
       </c>
       <c r="T11">
-        <v>0.03729549376477292</v>
+        <v>0.03461999321182365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H12">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I12">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J12">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N12">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O12">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P12">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q12">
-        <v>3.34173231894</v>
+        <v>6.793412483259222</v>
       </c>
       <c r="R12">
-        <v>30.07559087046</v>
+        <v>61.14071234933299</v>
       </c>
       <c r="S12">
-        <v>0.1159313515005794</v>
+        <v>0.1651099721933998</v>
       </c>
       <c r="T12">
-        <v>0.1159313515005794</v>
+        <v>0.1651099721933997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H13">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I13">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J13">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N13">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q13">
-        <v>1.823420552282222</v>
+        <v>2.929645356500111</v>
       </c>
       <c r="R13">
-        <v>16.41078497054</v>
+        <v>26.36680820850099</v>
       </c>
       <c r="S13">
-        <v>0.06325809155386344</v>
+        <v>0.07120334066866328</v>
       </c>
       <c r="T13">
-        <v>0.06325809155386346</v>
+        <v>0.07120334066866325</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H14">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I14">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J14">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N14">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q14">
-        <v>0.269513374704</v>
+        <v>0.117227073216</v>
       </c>
       <c r="R14">
-        <v>2.425620372336</v>
+        <v>1.055043658944</v>
       </c>
       <c r="S14">
-        <v>0.009349955889593139</v>
+        <v>0.002849136401875223</v>
       </c>
       <c r="T14">
-        <v>0.009349955889593141</v>
+        <v>0.002849136401875222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H15">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I15">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J15">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.055252</v>
       </c>
       <c r="O15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q15">
-        <v>0.07372412572800001</v>
+        <v>0.02402034952533334</v>
       </c>
       <c r="R15">
-        <v>0.6635171315520001</v>
+        <v>0.216183145728</v>
       </c>
       <c r="S15">
-        <v>0.002557636793768321</v>
+        <v>0.0005838007410821601</v>
       </c>
       <c r="T15">
-        <v>0.002557636793768321</v>
+        <v>0.0005838007410821599</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H16">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I16">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J16">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N16">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O16">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P16">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q16">
-        <v>0.229168102392</v>
+        <v>0.1145580594986667</v>
       </c>
       <c r="R16">
-        <v>2.062512921528</v>
+        <v>1.031022535488</v>
       </c>
       <c r="S16">
-        <v>0.007950298017752372</v>
+        <v>0.00278426756287293</v>
       </c>
       <c r="T16">
-        <v>0.007950298017752374</v>
+        <v>0.002784267562872929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H17">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I17">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J17">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N17">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q17">
-        <v>0.125045870808</v>
+        <v>0.04940293083733333</v>
       </c>
       <c r="R17">
-        <v>1.125412837272</v>
+        <v>0.4446263775359999</v>
       </c>
       <c r="S17">
-        <v>0.004338090373120209</v>
+        <v>0.001200709740049699</v>
       </c>
       <c r="T17">
-        <v>0.00433809037312021</v>
+        <v>0.001200709740049698</v>
       </c>
     </row>
   </sheetData>
